--- a/excel-reader/src/test/resources/test/Summary program.xlsx
+++ b/excel-reader/src/test/resources/test/Summary program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athul/dev/chart-visualizer/excel-reader/src/test/resources/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F15352-D56D-A044-A203-DD0AB447C96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FCA9A7-DA5C-1347-91CA-C427A7CC37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{68C4F292-790F-4BDF-8511-1661A1F30F9A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="65">
   <si>
     <t>Activity ID</t>
   </si>
@@ -169,6 +169,57 @@
   </si>
   <si>
     <t>Perungalathur Station</t>
+  </si>
+  <si>
+    <t>Perungalathur</t>
+  </si>
+  <si>
+    <t>Tambaram Station</t>
+  </si>
+  <si>
+    <t>Crompet Station</t>
+  </si>
+  <si>
+    <t>Tirusulam Station</t>
+  </si>
+  <si>
+    <t>Meenambakkam Station</t>
+  </si>
+  <si>
+    <t>Pazhavanthangal Station</t>
+  </si>
+  <si>
+    <t>St Thomas Mount Station</t>
+  </si>
+  <si>
+    <t>Guindy Station</t>
+  </si>
+  <si>
+    <t>Crompet</t>
+  </si>
+  <si>
+    <t>Pallavaram Station</t>
+  </si>
+  <si>
+    <t>Pallavaram</t>
+  </si>
+  <si>
+    <t>Tirusulam</t>
+  </si>
+  <si>
+    <t>Meenambakkam</t>
+  </si>
+  <si>
+    <t>Pazhavanthangal</t>
+  </si>
+  <si>
+    <t>St Thomas Mount</t>
+  </si>
+  <si>
+    <t>Guindy</t>
+  </si>
+  <si>
+    <t>Tambaram</t>
   </si>
 </sst>
 </file>
@@ -525,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A808D825-785D-433E-B595-86F1BAB6D20F}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D190" sqref="D190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1135,7 +1186,7 @@
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1184,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
@@ -1213,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
@@ -1262,7 +1313,7 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -1291,7 +1342,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -1340,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -1369,7 +1420,7 @@
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -1418,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>37</v>
@@ -1444,7 +1495,7 @@
         <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -1493,7 +1544,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
@@ -1519,7 +1570,7 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
         <v>43</v>
@@ -1534,6 +1585,3862 @@
         <v>45375</v>
       </c>
       <c r="I39">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>1437</v>
+      </c>
+      <c r="G40" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I40">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>179</v>
+      </c>
+      <c r="G41" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H41" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I41">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H42" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>96</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H43" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I43">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>203</v>
+      </c>
+      <c r="G44" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I44">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45">
+        <v>83</v>
+      </c>
+      <c r="G45" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H45" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46">
+        <v>113</v>
+      </c>
+      <c r="G46" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H46" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I46">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>115</v>
+      </c>
+      <c r="G47" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H47" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I47">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>47</v>
+      </c>
+      <c r="G48" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H48" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H49" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I49">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50">
+        <v>195</v>
+      </c>
+      <c r="G50" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I50">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H51" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I51">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52">
+        <v>48</v>
+      </c>
+      <c r="G52" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H52" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I52">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53">
+        <v>347</v>
+      </c>
+      <c r="G53" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H53" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I53">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I54">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55">
+        <v>47</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H55" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I55">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>429</v>
+      </c>
+      <c r="G56" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I56">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I57">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <v>36</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I58">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>1437</v>
+      </c>
+      <c r="G59" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I59">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>179</v>
+      </c>
+      <c r="G60" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H60" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61">
+        <v>26</v>
+      </c>
+      <c r="G61" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H61" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <v>96</v>
+      </c>
+      <c r="G62" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H62" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I62">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>203</v>
+      </c>
+      <c r="G63" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H63" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I63">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64">
+        <v>83</v>
+      </c>
+      <c r="G64" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H64" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65">
+        <v>113</v>
+      </c>
+      <c r="G65" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H65" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I65">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>115</v>
+      </c>
+      <c r="G66" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H66" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I66">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>47</v>
+      </c>
+      <c r="G67" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H67" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I67">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>15</v>
+      </c>
+      <c r="G68" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I68">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69">
+        <v>195</v>
+      </c>
+      <c r="G69" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I69">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <v>24</v>
+      </c>
+      <c r="G70" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I70">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71">
+        <v>48</v>
+      </c>
+      <c r="G71" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I71">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>347</v>
+      </c>
+      <c r="G72" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I72">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I73">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74">
+        <v>47</v>
+      </c>
+      <c r="G74" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I74">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>429</v>
+      </c>
+      <c r="G75" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H75" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I75">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D76" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I76">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77">
+        <v>36</v>
+      </c>
+      <c r="G77" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H77" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I77">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78">
+        <v>1437</v>
+      </c>
+      <c r="G78" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H78" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I78">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79">
+        <v>179</v>
+      </c>
+      <c r="G79" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I79">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80">
+        <v>26</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I80">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81">
+        <v>96</v>
+      </c>
+      <c r="G81" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I81">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>203</v>
+      </c>
+      <c r="G82" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I82">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83">
+        <v>83</v>
+      </c>
+      <c r="G83" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H83" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I83">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84">
+        <v>113</v>
+      </c>
+      <c r="G84" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H84" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I84">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>115</v>
+      </c>
+      <c r="G85" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H85" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I85">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86">
+        <v>47</v>
+      </c>
+      <c r="G86" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I86">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H87" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I87">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88">
+        <v>195</v>
+      </c>
+      <c r="G88" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H88" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I88">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>58</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H89" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I89">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>58</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90">
+        <v>48</v>
+      </c>
+      <c r="G90" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H90" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I90">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91">
+        <v>347</v>
+      </c>
+      <c r="G91" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H91" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I91">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I92">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" t="s">
+        <v>58</v>
+      </c>
+      <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93">
+        <v>47</v>
+      </c>
+      <c r="G93" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I93">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94">
+        <v>429</v>
+      </c>
+      <c r="G94" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H94" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I94">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" t="s">
+        <v>42</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I95">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96">
+        <v>36</v>
+      </c>
+      <c r="G96" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H96" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I96">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97">
+        <v>1437</v>
+      </c>
+      <c r="G97" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H97" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I97">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98">
+        <v>179</v>
+      </c>
+      <c r="G98" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I98">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>59</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99">
+        <v>26</v>
+      </c>
+      <c r="G99" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H99" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I99">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>59</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100">
+        <v>96</v>
+      </c>
+      <c r="G100" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H100" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I100">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101">
+        <v>203</v>
+      </c>
+      <c r="G101" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H101" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I101">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>83</v>
+      </c>
+      <c r="G102" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I102">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>113</v>
+      </c>
+      <c r="G103" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H103" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I103">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104">
+        <v>115</v>
+      </c>
+      <c r="G104" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H104" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I104">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>59</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>47</v>
+      </c>
+      <c r="G105" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H105" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I105">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>15</v>
+      </c>
+      <c r="G106" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H106" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I106">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107">
+        <v>195</v>
+      </c>
+      <c r="G107" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H107" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I107">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+      <c r="E108" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108">
+        <v>24</v>
+      </c>
+      <c r="G108" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H108" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I108">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" t="s">
+        <v>59</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>48</v>
+      </c>
+      <c r="G109" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H109" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I109">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110">
+        <v>347</v>
+      </c>
+      <c r="G110" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H110" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I110">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>59</v>
+      </c>
+      <c r="E111" t="s">
+        <v>37</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I111">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112">
+        <v>47</v>
+      </c>
+      <c r="G112" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H112" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I112">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113">
+        <v>429</v>
+      </c>
+      <c r="G113" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H113" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I113">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D114" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I114">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>36</v>
+      </c>
+      <c r="G115" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H115" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I115">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116">
+        <v>1437</v>
+      </c>
+      <c r="G116" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H116" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I116">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117">
+        <v>179</v>
+      </c>
+      <c r="G117" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H117" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I117">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118">
+        <v>26</v>
+      </c>
+      <c r="G118" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H118" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I118">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>96</v>
+      </c>
+      <c r="G119" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H119" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I119">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120">
+        <v>203</v>
+      </c>
+      <c r="G120" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H120" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I120">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s">
+        <v>60</v>
+      </c>
+      <c r="E121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121">
+        <v>83</v>
+      </c>
+      <c r="G121" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H121" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I121">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122">
+        <v>113</v>
+      </c>
+      <c r="G122" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H122" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I122">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123">
+        <v>115</v>
+      </c>
+      <c r="G123" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H123" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I123">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>60</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124">
+        <v>47</v>
+      </c>
+      <c r="G124" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H124" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I124">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>60</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>15</v>
+      </c>
+      <c r="G125" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H125" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I125">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="F126">
+        <v>195</v>
+      </c>
+      <c r="G126" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H126" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I126">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>30</v>
+      </c>
+      <c r="D127" t="s">
+        <v>60</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127">
+        <v>24</v>
+      </c>
+      <c r="G127" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H127" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I127">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>60</v>
+      </c>
+      <c r="E128" t="s">
+        <v>31</v>
+      </c>
+      <c r="F128">
+        <v>48</v>
+      </c>
+      <c r="G128" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H128" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I128">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129">
+        <v>347</v>
+      </c>
+      <c r="G129" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H129" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I129">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" t="s">
+        <v>37</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I130">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" t="s">
+        <v>37</v>
+      </c>
+      <c r="F131">
+        <v>47</v>
+      </c>
+      <c r="G131" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H131" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I131">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132">
+        <v>429</v>
+      </c>
+      <c r="G132" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H132" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I132">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E133" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I133">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134">
+        <v>36</v>
+      </c>
+      <c r="G134" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H134" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I134">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>53</v>
+      </c>
+      <c r="F135">
+        <v>1437</v>
+      </c>
+      <c r="G135" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H135" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I135">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <v>179</v>
+      </c>
+      <c r="G136" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H136" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I136">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>61</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137">
+        <v>26</v>
+      </c>
+      <c r="G137" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H137" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I137">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>61</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138">
+        <v>96</v>
+      </c>
+      <c r="G138" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H138" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I138">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139">
+        <v>203</v>
+      </c>
+      <c r="G139" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H139" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I139">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F140">
+        <v>83</v>
+      </c>
+      <c r="G140" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H140" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I140">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" t="s">
+        <v>61</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141">
+        <v>113</v>
+      </c>
+      <c r="G141" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H141" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I141">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142">
+        <v>115</v>
+      </c>
+      <c r="G142" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H142" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I142">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143">
+        <v>47</v>
+      </c>
+      <c r="G143" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H143" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I143">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" t="s">
+        <v>61</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H144" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I144">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145">
+        <v>195</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H145" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I145">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146">
+        <v>24</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H146" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I146">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147">
+        <v>48</v>
+      </c>
+      <c r="G147" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H147" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I147">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
+      </c>
+      <c r="F148">
+        <v>347</v>
+      </c>
+      <c r="G148" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H148" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I148">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>35</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149" t="s">
+        <v>37</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I149">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" t="s">
+        <v>61</v>
+      </c>
+      <c r="E150" t="s">
+        <v>37</v>
+      </c>
+      <c r="F150">
+        <v>47</v>
+      </c>
+      <c r="G150" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H150" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I150">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151">
+        <v>429</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H151" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I151">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>41</v>
+      </c>
+      <c r="C152" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" t="s">
+        <v>61</v>
+      </c>
+      <c r="E152" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I152">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" t="s">
+        <v>61</v>
+      </c>
+      <c r="E153" t="s">
+        <v>43</v>
+      </c>
+      <c r="F153">
+        <v>36</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H153" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I153">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>54</v>
+      </c>
+      <c r="F154">
+        <v>1437</v>
+      </c>
+      <c r="G154" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H154" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I154">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>179</v>
+      </c>
+      <c r="G155" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H155" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I155">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>62</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156">
+        <v>26</v>
+      </c>
+      <c r="G156" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H156" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I156">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>62</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157">
+        <v>96</v>
+      </c>
+      <c r="G157" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H157" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I157">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158">
+        <v>203</v>
+      </c>
+      <c r="G158" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H158" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I158">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159">
+        <v>83</v>
+      </c>
+      <c r="G159" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H159" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I159">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160">
+        <v>113</v>
+      </c>
+      <c r="G160" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H160" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I160">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161">
+        <v>115</v>
+      </c>
+      <c r="G161" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H161" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I161">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>62</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162">
+        <v>47</v>
+      </c>
+      <c r="G162" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H162" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I162">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>26</v>
+      </c>
+      <c r="C163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D163" t="s">
+        <v>62</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163">
+        <v>15</v>
+      </c>
+      <c r="G163" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H163" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I163">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164">
+        <v>195</v>
+      </c>
+      <c r="G164" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H164" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I164">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" t="s">
+        <v>62</v>
+      </c>
+      <c r="E165" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165">
+        <v>24</v>
+      </c>
+      <c r="G165" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H165" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I165">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>32</v>
+      </c>
+      <c r="C166" t="s">
+        <v>33</v>
+      </c>
+      <c r="D166" t="s">
+        <v>62</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166">
+        <v>48</v>
+      </c>
+      <c r="G166" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H166" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I166">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167">
+        <v>347</v>
+      </c>
+      <c r="G167" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H167" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I167">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" t="s">
+        <v>36</v>
+      </c>
+      <c r="D168" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" t="s">
+        <v>37</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I168">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>62</v>
+      </c>
+      <c r="E169" t="s">
+        <v>37</v>
+      </c>
+      <c r="F169">
+        <v>47</v>
+      </c>
+      <c r="G169" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H169" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I169">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>40</v>
+      </c>
+      <c r="F170">
+        <v>429</v>
+      </c>
+      <c r="G170" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H170" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I170">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>41</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D171" t="s">
+        <v>62</v>
+      </c>
+      <c r="E171" t="s">
+        <v>43</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I171">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>44</v>
+      </c>
+      <c r="C172" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172">
+        <v>36</v>
+      </c>
+      <c r="G172" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H172" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I172">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>55</v>
+      </c>
+      <c r="F173">
+        <v>1437</v>
+      </c>
+      <c r="G173" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H173" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I173">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174">
+        <v>179</v>
+      </c>
+      <c r="G174" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H174" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I174">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175">
+        <v>26</v>
+      </c>
+      <c r="G175" s="2">
+        <v>43208</v>
+      </c>
+      <c r="H175" s="2">
+        <v>43243</v>
+      </c>
+      <c r="I175">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>63</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176">
+        <v>96</v>
+      </c>
+      <c r="G176" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H176" s="2">
+        <v>43454</v>
+      </c>
+      <c r="I176">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>203</v>
+      </c>
+      <c r="G177" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H177" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I177">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F178">
+        <v>83</v>
+      </c>
+      <c r="G178" s="2">
+        <v>43322</v>
+      </c>
+      <c r="H178" s="2">
+        <v>43435</v>
+      </c>
+      <c r="I178">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" t="s">
+        <v>19</v>
+      </c>
+      <c r="F179">
+        <v>113</v>
+      </c>
+      <c r="G179" s="2">
+        <v>43447</v>
+      </c>
+      <c r="H179" s="2">
+        <v>43630</v>
+      </c>
+      <c r="I179">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180">
+        <v>115</v>
+      </c>
+      <c r="G180" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H180" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I180">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>63</v>
+      </c>
+      <c r="E181" t="s">
+        <v>25</v>
+      </c>
+      <c r="F181">
+        <v>47</v>
+      </c>
+      <c r="G181" s="2">
+        <v>43777</v>
+      </c>
+      <c r="H181" s="2">
+        <v>43860</v>
+      </c>
+      <c r="I181">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>63</v>
+      </c>
+      <c r="E182" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182">
+        <v>15</v>
+      </c>
+      <c r="G182" s="2">
+        <v>43939</v>
+      </c>
+      <c r="H182" s="2">
+        <v>43959</v>
+      </c>
+      <c r="I182">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183">
+        <v>195</v>
+      </c>
+      <c r="G183" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H183" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I183">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" t="s">
+        <v>30</v>
+      </c>
+      <c r="D184" t="s">
+        <v>63</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+      <c r="F184">
+        <v>24</v>
+      </c>
+      <c r="G184" s="2">
+        <v>44023</v>
+      </c>
+      <c r="H184" s="2">
+        <v>44054</v>
+      </c>
+      <c r="I184">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C185" t="s">
+        <v>33</v>
+      </c>
+      <c r="D185" t="s">
+        <v>63</v>
+      </c>
+      <c r="E185" t="s">
+        <v>31</v>
+      </c>
+      <c r="F185">
+        <v>48</v>
+      </c>
+      <c r="G185" s="2">
+        <v>44247</v>
+      </c>
+      <c r="H185" s="2">
+        <v>44317</v>
+      </c>
+      <c r="I185">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186">
+        <v>347</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44092</v>
+      </c>
+      <c r="H186" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I186">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>63</v>
+      </c>
+      <c r="E187" t="s">
+        <v>37</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44092</v>
+      </c>
+      <c r="I187">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" t="s">
+        <v>39</v>
+      </c>
+      <c r="D188" t="s">
+        <v>63</v>
+      </c>
+      <c r="E188" t="s">
+        <v>37</v>
+      </c>
+      <c r="F188">
+        <v>47</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44498</v>
+      </c>
+      <c r="H188" s="2">
+        <v>44575</v>
+      </c>
+      <c r="I188">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="F189">
+        <v>429</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44055</v>
+      </c>
+      <c r="H189" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I189">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>41</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>63</v>
+      </c>
+      <c r="E190" t="s">
+        <v>43</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44055</v>
+      </c>
+      <c r="I190">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" t="s">
+        <v>63</v>
+      </c>
+      <c r="E191" t="s">
+        <v>43</v>
+      </c>
+      <c r="F191">
+        <v>36</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44600</v>
+      </c>
+      <c r="H191" s="2">
+        <v>45375</v>
+      </c>
+      <c r="I191">
         <v>261</v>
       </c>
     </row>
